--- a/racks.xlsx
+++ b/racks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>L28</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Col3</t>
   </si>
   <si>
-    <t>Out</t>
-  </si>
-  <si>
     <t>1-128</t>
   </si>
   <si>
@@ -88,6 +85,51 @@
   </si>
   <si>
     <t>513-640</t>
+  </si>
+  <si>
+    <t>L25</t>
+  </si>
+  <si>
+    <t>L17</t>
+  </si>
+  <si>
+    <t>M20</t>
+  </si>
+  <si>
+    <t>M24</t>
+  </si>
+  <si>
+    <t>M28</t>
+  </si>
+  <si>
+    <t>Out\In</t>
+  </si>
+  <si>
+    <t>513-768</t>
+  </si>
+  <si>
+    <t>769-1024</t>
+  </si>
+  <si>
+    <t>Col4</t>
+  </si>
+  <si>
+    <t>N27</t>
+  </si>
+  <si>
+    <t>N26</t>
+  </si>
+  <si>
+    <t>N25</t>
+  </si>
+  <si>
+    <t>N24</t>
+  </si>
+  <si>
+    <t>N23</t>
+  </si>
+  <si>
+    <t>N22</t>
   </si>
 </sst>
 </file>
@@ -426,17 +468,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -447,10 +489,13 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -461,10 +506,13 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -475,10 +523,13 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -489,10 +540,13 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -503,10 +557,13 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -516,6 +573,37 @@
       </c>
       <c r="D6" t="s">
         <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
